--- a/nexera/Problems/Problems/Question1/Question1.xlsx
+++ b/nexera/Problems/Problems/Question1/Question1.xlsx
@@ -117,12 +117,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,103 +133,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,30 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -298,14 +246,50 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,25 +310,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,151 +472,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,30 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,6 +515,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,163 +578,178 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -773,25 +757,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1116,21 +1097,21 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85714285714286" style="3"/>
-    <col min="2" max="2" width="16.5714285714286" style="3" customWidth="1"/>
-    <col min="3" max="4" width="12.7142857142857" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.1428571428571" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.7142857142857" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.8571428571429" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5714285714286" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.8571428571429" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.8571428571429" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.85714285714286" style="3"/>
+    <col min="1" max="1" width="8.85714285714286" style="5"/>
+    <col min="2" max="2" width="16.5714285714286" style="5" customWidth="1"/>
+    <col min="3" max="4" width="12.7142857142857" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.1428571428571" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.7142857142857" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.8571428571429" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.5714285714286" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.8571428571429" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.8571428571429" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.85714285714286" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
@@ -1161,135 +1142,135 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>0.01</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="5">
         <v>101325</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="5">
         <v>101500</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>0.05</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="5">
         <v>101325</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="5">
         <v>101325</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>0.02</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>0.1</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>101325</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="5">
         <v>101375</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>0.02</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>0.1</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>101325</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="5">
         <v>102000</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1297,13 +1278,13 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2">
@@ -1312,7 +1293,7 @@
       <c r="F6" s="2">
         <v>0.1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="2">
@@ -1321,10 +1302,10 @@
       <c r="I6" s="2">
         <v>102000</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1332,13 +1313,13 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="2">
@@ -1347,7 +1328,7 @@
       <c r="F7" s="2">
         <v>0.05</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="2">
@@ -1356,50 +1337,50 @@
       <c r="I7" s="2">
         <v>103750</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:11">
-      <c r="A8" s="2">
+    <row r="8" s="3" customFormat="1" spans="1:11">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>0.015</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>101325</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>101750</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="6">
+    <row r="9" s="4" customFormat="1" spans="1:11">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1414,16 +1395,16 @@
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>0.08</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>101325</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>101500</v>
       </c>
       <c r="J9" s="8" t="s">
@@ -1437,13 +1418,13 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="2">
@@ -1452,7 +1433,7 @@
       <c r="F10" s="2">
         <v>0.04</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="2">
@@ -1461,42 +1442,42 @@
       <c r="I10" s="2">
         <v>102750</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>0.025</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="5">
         <v>101325</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="5">
         <v>101875</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
